--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_37.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3913683.850064704</v>
+        <v>3913683.850064703</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>895228.9320850733</v>
+        <v>76519.93781635832</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>99.22048016534504</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>110.4187366706611</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>120.4120358099647</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>139.8939792152983</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0.09874051260470877</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>142.9424972118197</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>22.35002255071629</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>51.11906992624019</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1133,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>369.5666833158034</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>344.4524256080903</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>20.63421788630139</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>266.6210949690529</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1427,7 +1427,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>49.75265095111109</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431766</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>29.84990619576027</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,16 +1819,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>238.2336684417116</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1898,7 +1898,7 @@
         <v>208.482788338503</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>31.13654107019676</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>192.6870404842872</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2135,7 +2135,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>203.6455515979787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>122.65197883716</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784682</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>203.1906585375004</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2843,7 +2843,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,19 +3001,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>172.8413915615914</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3238,10 +3238,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>170.5809693952292</v>
       </c>
       <c r="U34" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>14.7366432835706</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3472,16 +3472,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>73.0083725945403</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,10 +3724,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3797,7 +3797,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>22.1010038232758</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3958,10 +3958,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4186,10 +4186,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>185.0314030821033</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1022.045772923999</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C2" t="n">
-        <v>653.0832559835876</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D2" t="n">
-        <v>653.0832559835876</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>653.0832559835876</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>646.1377552343841</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.111371249201</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X2" t="n">
-        <v>1408.645612988121</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y2" t="n">
-        <v>1408.645612988121</v>
+        <v>1822.041796525165</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.6879402326646</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>325.6879402326646</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>175.5713008203288</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>195.250031532787</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629043</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1954.141365880777</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>1954.141365880777</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.049353126703</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.280697856589</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X5" t="n">
-        <v>2344.280697856589</v>
+        <v>1750.153230744814</v>
       </c>
       <c r="Y5" t="n">
-        <v>1954.141365880777</v>
+        <v>1750.153230744814</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4650,13 +4650,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>426.2840617486069</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>257.3478788207</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>705.5532038521756</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>705.5532038521756</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>450.8687156462887</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>450.8687156462887</v>
+        <v>647.076640892137</v>
       </c>
       <c r="X7" t="n">
-        <v>222.8791647482714</v>
+        <v>647.076640892137</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.8791647482714</v>
+        <v>426.2840617486069</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2079.343073798764</v>
+        <v>1409.658350833669</v>
       </c>
       <c r="C8" t="n">
-        <v>1710.380556858352</v>
+        <v>1409.658350833669</v>
       </c>
       <c r="D8" t="n">
-        <v>1352.114858251602</v>
+        <v>1409.658350833669</v>
       </c>
       <c r="E8" t="n">
-        <v>966.3266056533573</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>555.3407008637498</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4799,55 +4799,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862886</v>
+        <v>1796.25819089779</v>
       </c>
       <c r="Y8" t="n">
-        <v>2465.942913862886</v>
+        <v>1796.25819089779</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>74.78562614996181</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>74.78562614996181</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782189</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782189</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V10" t="n">
-        <v>484.4236418782189</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>484.4236418782189</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>256.4340909802015</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>256.4340909802015</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>1232.211221195791</v>
       </c>
       <c r="M12" t="n">
-        <v>1483.830826756747</v>
+        <v>1552.546540725493</v>
       </c>
       <c r="N12" t="n">
-        <v>1828.351482394365</v>
+        <v>1897.067196363111</v>
       </c>
       <c r="O12" t="n">
-        <v>2077.104896478327</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>444.7802503911732</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632138</v>
+        <v>444.7802503911732</v>
       </c>
       <c r="D13" t="n">
-        <v>822.148054050878</v>
+        <v>444.7802503911732</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684849</v>
+        <v>444.7802503911732</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>297.8903028932629</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>847.2212943649431</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>626.428715221413</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>388.8958536704856</v>
+        <v>664.5909712050459</v>
       </c>
       <c r="L15" t="n">
-        <v>635.6609815769497</v>
+        <v>894.5540770733951</v>
       </c>
       <c r="M15" t="n">
-        <v>1298.861305376241</v>
+        <v>1214.889396603097</v>
       </c>
       <c r="N15" t="n">
-        <v>2103.272883640391</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O15" t="n">
-        <v>2103.272883640391</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.3924131404652</v>
+        <v>1023.439203208485</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>854.5030202805784</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>704.3863808682427</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5467,19 +5467,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1258.27620142486</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1003.591713218973</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>714.1745431820127</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X16" t="n">
-        <v>486.1849922839954</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="Y16" t="n">
-        <v>265.3924131404652</v>
+        <v>1023.439203208485</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5510,31 +5510,31 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5555,10 +5555,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2334.498159098442</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2459.855719156279</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L18" t="n">
-        <v>2689.818825024628</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M18" t="n">
-        <v>3257.174975824939</v>
+        <v>980.7133327789487</v>
       </c>
       <c r="N18" t="n">
-        <v>3601.695631462557</v>
+        <v>1785.124911043099</v>
       </c>
       <c r="O18" t="n">
-        <v>4271.159392765217</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P18" t="n">
-        <v>4791.460014500964</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>128.6681430463432</v>
+        <v>993.2877828087275</v>
       </c>
       <c r="C19" t="n">
-        <v>128.6681430463432</v>
+        <v>824.3515998808206</v>
       </c>
       <c r="D19" t="n">
-        <v>128.6681430463432</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E19" t="n">
-        <v>128.6681430463432</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F19" t="n">
-        <v>128.6681430463432</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>993.2877828087275</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>993.2877828087275</v>
       </c>
       <c r="V19" t="n">
-        <v>820.5263570570736</v>
+        <v>993.2877828087275</v>
       </c>
       <c r="W19" t="n">
-        <v>531.109187020113</v>
+        <v>993.2877828087275</v>
       </c>
       <c r="X19" t="n">
-        <v>531.109187020113</v>
+        <v>993.2877828087275</v>
       </c>
       <c r="Y19" t="n">
-        <v>310.3166078765829</v>
+        <v>993.2877828087275</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5771,31 +5771,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028587</v>
+        <v>581.537768108745</v>
       </c>
       <c r="L21" t="n">
-        <v>537.2074630401934</v>
+        <v>811.5008739770942</v>
       </c>
       <c r="M21" t="n">
-        <v>857.5427825698952</v>
+        <v>1131.836193506796</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1476.356849144414</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>711.072954880832</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C22" t="n">
-        <v>542.1367719529251</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1387.841167119728</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>1387.841167119728</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>1098.423997082767</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>1098.423997082767</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y22" t="n">
-        <v>892.7214197110717</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="23">
@@ -5987,19 +5987,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L24" t="n">
-        <v>674.4285624571609</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M24" t="n">
-        <v>1298.861305376241</v>
+        <v>772.8730769161741</v>
       </c>
       <c r="N24" t="n">
-        <v>2103.272883640391</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.272883640391</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028584</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>221.1079791745888</v>
       </c>
     </row>
     <row r="26">
@@ -6221,49 +6221,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590536</v>
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>246.2867756623457</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L27" t="n">
-        <v>493.0519035688098</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M27" t="n">
-        <v>813.3872230985116</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N27" t="n">
-        <v>1617.798801362662</v>
+        <v>1854.519469556429</v>
       </c>
       <c r="O27" t="n">
-        <v>2287.262562665322</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P27" t="n">
-        <v>2492.285043447531</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>4184.545848715274</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>4015.609665787366</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>3865.493026375031</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>3717.579932792637</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>4571.437402977332</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>4571.437402977332</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>4366.194313545513</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6461,10 +6461,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6476,7 +6476,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899127</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6543,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L30" t="n">
-        <v>741.6306675263493</v>
+        <v>577.324810152946</v>
       </c>
       <c r="M30" t="n">
-        <v>1509.998813918811</v>
+        <v>897.6601296826478</v>
       </c>
       <c r="N30" t="n">
-        <v>1854.519469556429</v>
+        <v>1702.071707946799</v>
       </c>
       <c r="O30" t="n">
-        <v>2103.272883640391</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>545.8631874464246</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6649,22 +6649,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1124.408996269827</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>835.2803574833852</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>835.2803574833852</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>545.8631874464246</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>545.8631874464246</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>545.8631874464246</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,25 +6683,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,7 +6710,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6743,7 +6743,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>329.2309481817027</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L33" t="n">
-        <v>329.2309481817027</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M33" t="n">
-        <v>649.5662677114045</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N33" t="n">
-        <v>1453.977845975555</v>
+        <v>2025.317482043085</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6886,22 +6886,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1326.612261067772</v>
       </c>
       <c r="U34" t="n">
-        <v>1271.749344574921</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="V34" t="n">
-        <v>1017.064856369034</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W34" t="n">
-        <v>727.647686332073</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X34" t="n">
-        <v>499.6581354340557</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805475</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822467</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6953,34 +6953,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>967.0546881959771</v>
       </c>
       <c r="N36" t="n">
-        <v>2192.176613678825</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O36" t="n">
         <v>2440.930027762787</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>260.0156833089119</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>112.1025897265188</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7099,10 +7099,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7120,25 +7120,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952638</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,25 +7160,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7199,22 +7199,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,19 +7251,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>138.7081686256435</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>752.6052383825321</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>897.6601296826478</v>
+        <v>1778.261399527878</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.071707946799</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O39" t="n">
         <v>2371.535469249458</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>465.7659634441654</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C40" t="n">
-        <v>465.7659634441654</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D40" t="n">
-        <v>465.7659634441654</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E40" t="n">
-        <v>317.8528698617723</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F40" t="n">
-        <v>170.9629223638619</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7357,25 +7357,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1009.867621687013</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>755.183133481126</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W40" t="n">
-        <v>465.7659634441654</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X40" t="n">
-        <v>465.7659634441654</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y40" t="n">
-        <v>465.7659634441654</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7491,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>644.6755122555215</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619856</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1318.370476901345</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>3800.532462543054</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>3631.596279615148</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>3481.479640202812</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>3481.479640202812</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>3481.479640202812</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>3481.479640202812</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>4236.865415579181</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>3982.180927373294</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336712</v>
+        <v>3982.180927373294</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>3982.180927373294</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>3982.180927373294</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
         <v>1701.09316900344</v>
@@ -7634,7 +7634,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
         <v>488.193237080547</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7834,22 +7834,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1112.095853319815</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>822.9672145333731</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>568.2827263274862</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9018,13 +9018,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9495,10 +9495,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,7 +9720,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9729,13 +9729,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9969,10 +9969,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10443,10 +10443,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,7 +10674,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11142,16 +11142,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>116.7409175122665</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23479,10 +23479,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.27839330891823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>116.5840564508089</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>48.00368395686573</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>135.3570273931808</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>28.86052057410205</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>33.38685156731853</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>14.93910175411614</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24367,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>25.96349418105238</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24619,7 +24619,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>15.39399481459441</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,19 +24889,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>48.70616949679786</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25126,10 +25126,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>50.96659166316005</v>
       </c>
       <c r="U34" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>130.6844047393606</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25360,16 +25360,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,22 +25546,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>93.48519586883728</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25597,13 +25597,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25612,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25801,7 +25801,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>126.8128245442603</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,10 +25846,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26074,10 +26074,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>36.516157976286</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>645197.9485672199</v>
+        <v>645197.9485672198</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672199</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672199</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147609</v>
       </c>
       <c r="F2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="G2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="H2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.760514761</v>
       </c>
       <c r="I2" t="n">
         <v>723403.7605147611</v>
       </c>
       <c r="J2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="K2" t="n">
+        <v>723403.7605147613</v>
+      </c>
+      <c r="L2" t="n">
         <v>723403.7605147611</v>
-      </c>
-      <c r="L2" t="n">
-        <v>723403.7605147612</v>
       </c>
       <c r="M2" t="n">
         <v>723403.7605147612</v>
       </c>
       <c r="N2" t="n">
+        <v>723403.760514761</v>
+      </c>
+      <c r="O2" t="n">
         <v>723403.7605147612</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>723403.7605147613</v>
-      </c>
-      <c r="P2" t="n">
-        <v>723403.760514761</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,28 +26418,28 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
+        <v>139059.1391806191</v>
+      </c>
+      <c r="D4" t="n">
         <v>139059.139180619</v>
       </c>
-      <c r="D4" t="n">
-        <v>139059.1391806191</v>
-      </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758357</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
-        <v>787.793690575906</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758695</v>
@@ -26448,16 +26448,16 @@
         <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758285</v>
+        <v>787.7936905758693</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26470,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340946</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340947</v>
       </c>
-      <c r="D5" t="n">
-        <v>82859.07806340946</v>
-      </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26491,7 +26491,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-52422.45933411055</v>
+        <v>-52422.45933411067</v>
       </c>
       <c r="C6" t="n">
-        <v>537545.4198804337</v>
+        <v>537545.4198804338</v>
       </c>
       <c r="D6" t="n">
         <v>537545.4198804337</v>
       </c>
       <c r="E6" t="n">
-        <v>105468.6043985726</v>
+        <v>105468.6043985724</v>
       </c>
       <c r="F6" t="n">
-        <v>630628.6408754688</v>
+        <v>630628.6408754686</v>
       </c>
       <c r="G6" t="n">
-        <v>630628.640875469</v>
+        <v>630628.6408754686</v>
       </c>
       <c r="H6" t="n">
-        <v>630628.6408754687</v>
+        <v>630628.6408754685</v>
       </c>
       <c r="I6" t="n">
         <v>630628.6408754686</v>
       </c>
       <c r="J6" t="n">
-        <v>454205.4216828759</v>
+        <v>454205.4216828758</v>
       </c>
       <c r="K6" t="n">
+        <v>630628.6408754688</v>
+      </c>
+      <c r="L6" t="n">
         <v>630628.6408754686</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
+        <v>495827.6256416315</v>
+      </c>
+      <c r="N6" t="n">
+        <v>630628.6408754685</v>
+      </c>
+      <c r="O6" t="n">
         <v>630628.6408754687</v>
       </c>
-      <c r="M6" t="n">
-        <v>495827.6256416314</v>
-      </c>
-      <c r="N6" t="n">
-        <v>630628.6408754687</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>630628.6408754688</v>
-      </c>
-      <c r="P6" t="n">
-        <v>630628.6408754685</v>
       </c>
     </row>
   </sheetData>
@@ -26707,10 +26707,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26741,10 +26741,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>283.5133614981355</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>303.3654333501339</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>26.02192683660444</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>112.2436641085297</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.6535179575302</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>226.7886034666493</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27825,22 +27825,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>202.685082907368</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>235.4039284103508</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27853,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>12.36368675645838</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>69.33174441270472</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>127.981255131911</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>19.66077927292486</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>8.038590482916834e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -31370,7 +31370,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942338</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31379,7 +31379,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>73.87984549392718</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,7 +31610,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>86.43447689993462</v>
+        <v>86.43447689993485</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,13 +31838,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>331.1308614851324</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -31856,7 +31856,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>69.40981208964311</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31865,10 +31865,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,25 +32078,25 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>278.479916701576</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>346.3282871409992</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -32321,13 +32321,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>249.5159911824339</v>
+        <v>41.93843809132539</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>341.0678223458549</v>
@@ -32485,7 +32485,7 @@
         <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
@@ -32549,25 +32549,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>194.5877923618782</v>
       </c>
       <c r="L21" t="n">
-        <v>212.1487532439983</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32786,28 +32786,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>307.1691145347252</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>446.4811309968916</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
@@ -33023,10 +33023,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358985</v>
@@ -33035,16 +33035,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>188.7581524866009</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>62.51909435886628</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
@@ -33263,22 +33263,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>3.596162983031974</v>
+        <v>126.0475280469431</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -33497,28 +33497,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>204.1976557107777</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>168.5445774098388</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
@@ -33679,7 +33679,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S35" t="n">
         <v>76.0697047810465</v>
@@ -33734,22 +33734,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>196.1430416967706</v>
       </c>
       <c r="N36" t="n">
-        <v>268.1930606412265</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -33904,7 +33904,7 @@
         <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
         <v>562.4526372540886</v>
@@ -33974,19 +33974,19 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>288.6541261443575</v>
+        <v>171.3135836203299</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -34211,25 +34211,25 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>258.3632915000363</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>383.0062604371804</v>
       </c>
       <c r="N42" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
@@ -34390,7 +34390,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S44" t="n">
         <v>76.0697047810465</v>
@@ -35018,7 +35018,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35258,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279162</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>563.4168270087174</v>
       </c>
       <c r="M12" t="n">
         <v>323.5710298279816</v>
@@ -35504,7 +35504,7 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>253.89817331525</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>405.1037147397956</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>669.8993169689808</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>126.6237980382196</v>
@@ -35969,13 +35969,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>573.0870210104155</v>
+        <v>365.509467919307</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
@@ -36133,7 +36133,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109123</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>321.2115904000978</v>
       </c>
       <c r="L21" t="n">
-        <v>444.4347187675833</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>630.7401443627068</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>794.4817932571118</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>536.7588147468211</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>132.6146080086939</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>235.882128506617</v>
+        <v>358.3334935705281</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>66.35621673641872</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>419.8106522421239</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>519.7140715247522</v>
       </c>
       <c r="N36" t="n">
-        <v>136.8513485578931</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37552,7 +37552,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>146.5200922223391</v>
+        <v>494.8846134483115</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37859,25 +37859,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>384.9870895382559</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>706.577290265162</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3913683.850064703</v>
+        <v>3989213.519729509</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76519.93781635832</v>
+        <v>433703.1370340897</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7553324.36038505</v>
+        <v>7553324.360385051</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.22048016534504</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>288.3166273513413</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -710,7 +712,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -786,7 +788,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -817,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -859,28 +861,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>125.8721928563319</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>139.8939792152983</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>355.1422064564485</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>142.9424972118197</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1069,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>113.094056147415</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>51.11906992624019</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>235.0190958504333</v>
       </c>
       <c r="E8" t="n">
-        <v>369.5666833158034</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>51.62712572578849</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>266.6210949690529</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1379,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274039</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,19 +1423,19 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>49.75265095111109</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>21.41202592065235</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>38.45341259536321</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>29.84990619576027</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1859,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113175</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,10 +1897,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2002,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,19 +2055,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>192.6870404842872</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>59.77945773665036</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>84.99328957525776</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,16 +2298,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2369,7 +2371,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2479,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>122.65197883716</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>120.8530343211901</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2606,10 +2608,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>56.87681503120211</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>203.1906585375004</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2801,16 +2803,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2953,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>164.7236313053557</v>
       </c>
       <c r="T31" t="n">
-        <v>172.8413915615914</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3238,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>170.5809693952292</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>75.14894167373353</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>14.7366432835706</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>245.8703231759002</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.64843562452406</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3718,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>9.452422886129069</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274067</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,13 +3793,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="42">
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>22.1010038232758</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3955,16 +3957,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>167.547633217897</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5731721124307</v>
       </c>
       <c r="T46" t="n">
-        <v>185.0314030821033</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1721.819089287443</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="C2" t="n">
-        <v>1721.819089287443</v>
+        <v>898.3495310014346</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>898.3495310014346</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>512.5612784031903</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2212.181128500977</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>2212.181128500977</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y2" t="n">
-        <v>1822.041796525165</v>
+        <v>1267.312047941846</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4434,16 +4436,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782191</v>
+        <v>600.9853550586245</v>
       </c>
       <c r="U4" t="n">
-        <v>195.250031532787</v>
+        <v>600.9853550586245</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>600.9853550586245</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>600.9853550586245</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>1894.539591564834</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>1750.153230744814</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1750.153230744814</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4650,7 +4652,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426.2840617486069</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C7" t="n">
-        <v>257.3478788207</v>
+        <v>304.5083130726405</v>
       </c>
       <c r="D7" t="n">
-        <v>257.3478788207</v>
+        <v>304.5083130726405</v>
       </c>
       <c r="E7" t="n">
-        <v>257.3478788207</v>
+        <v>304.5083130726405</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>304.5083130726405</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>304.5083130726405</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>647.076640892137</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X7" t="n">
-        <v>647.076640892137</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y7" t="n">
-        <v>426.2840617486069</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1409.658350833669</v>
+        <v>1816.442957727743</v>
       </c>
       <c r="C8" t="n">
-        <v>1409.658350833669</v>
+        <v>1447.480440787331</v>
       </c>
       <c r="D8" t="n">
-        <v>1409.658350833669</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>2189.908715988823</v>
       </c>
       <c r="W8" t="n">
-        <v>2169.72394915887</v>
+        <v>2189.908715988823</v>
       </c>
       <c r="X8" t="n">
-        <v>1796.25819089779</v>
+        <v>1816.442957727743</v>
       </c>
       <c r="Y8" t="n">
-        <v>1796.25819089779</v>
+        <v>1816.442957727743</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4874,31 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>444.0275768541698</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>275.0913939262629</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>275.0913939262629</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>222.9427820820321</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>222.9427820820321</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="T10" t="n">
-        <v>323.2572191628421</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036446</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036446</v>
+        <v>444.0275768541698</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036446</v>
+        <v>444.0275768541698</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>444.0275768541698</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>444.0275768541698</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L12" t="n">
-        <v>1232.211221195791</v>
+        <v>738.0704661731478</v>
       </c>
       <c r="M12" t="n">
-        <v>1552.546540725493</v>
+        <v>1078.658454602813</v>
       </c>
       <c r="N12" t="n">
-        <v>1897.067196363111</v>
+        <v>1423.179110240431</v>
       </c>
       <c r="O12" t="n">
-        <v>2145.820610447073</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>444.7802503911732</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="C13" t="n">
-        <v>444.7802503911732</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7802503911732</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E13" t="n">
-        <v>444.7802503911732</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="F13" t="n">
-        <v>297.8903028932629</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609671</v>
       </c>
       <c r="V13" t="n">
-        <v>1075.21084526296</v>
+        <v>964.3739075502072</v>
       </c>
       <c r="W13" t="n">
-        <v>1075.21084526296</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="X13" t="n">
-        <v>847.2212943649431</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="Y13" t="n">
-        <v>626.428715221413</v>
+        <v>674.9567375132466</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5260,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5270,13 +5272,13 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514088</v>
@@ -5285,16 +5287,16 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,10 +5305,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5343,40 +5345,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>664.5909712050459</v>
+        <v>653.9609591077453</v>
       </c>
       <c r="L15" t="n">
-        <v>894.5540770733951</v>
+        <v>883.9240649760945</v>
       </c>
       <c r="M15" t="n">
-        <v>1214.889396603097</v>
+        <v>1204.259384505796</v>
       </c>
       <c r="N15" t="n">
-        <v>1559.410052240715</v>
+        <v>1548.780040143414</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1023.439203208485</v>
+        <v>434.3900243991429</v>
       </c>
       <c r="C16" t="n">
-        <v>854.5030202805784</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D16" t="n">
-        <v>704.3863808682427</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>844.0280401274</v>
       </c>
       <c r="W16" t="n">
-        <v>1244.231782352015</v>
+        <v>844.0280401274</v>
       </c>
       <c r="X16" t="n">
-        <v>1244.231782352015</v>
+        <v>616.0384892293827</v>
       </c>
       <c r="Y16" t="n">
-        <v>1023.439203208485</v>
+        <v>616.0384892293827</v>
       </c>
     </row>
     <row r="17">
@@ -5495,31 +5497,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515098</v>
@@ -5534,13 +5536,13 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5580,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>388.8958536704856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L18" t="n">
-        <v>618.8589595388348</v>
+        <v>711.1141612171747</v>
       </c>
       <c r="M18" t="n">
-        <v>980.7133327789487</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N18" t="n">
-        <v>1785.124911043099</v>
+        <v>1824.002963247254</v>
       </c>
       <c r="O18" t="n">
-        <v>2033.878325127062</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>993.2877828087275</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>824.3515998808206</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>993.2877828087275</v>
+        <v>964.1357418247867</v>
       </c>
       <c r="U19" t="n">
-        <v>993.2877828087275</v>
+        <v>675.0071030383449</v>
       </c>
       <c r="V19" t="n">
-        <v>993.2877828087275</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>993.2877828087275</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>993.2877828087275</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>993.2877828087275</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5729,28 +5731,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514085</v>
@@ -5777,22 +5779,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="K21" t="n">
-        <v>581.537768108745</v>
+        <v>2745.388427942954</v>
       </c>
       <c r="L21" t="n">
-        <v>811.5008739770942</v>
+        <v>3021.459461971185</v>
       </c>
       <c r="M21" t="n">
-        <v>1131.836193506796</v>
+        <v>3789.827608363647</v>
       </c>
       <c r="N21" t="n">
-        <v>1476.356849144414</v>
+        <v>4134.348264001264</v>
       </c>
       <c r="O21" t="n">
-        <v>2145.820610447073</v>
+        <v>4383.101678085227</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1301.989359467952</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1078.203944257458</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X22" t="n">
-        <v>213.9110074201016</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.9110074201016</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5987,19 +5989,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6069,25 +6071,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>452.5377573864724</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>772.8730769161741</v>
+        <v>1756.756555001905</v>
       </c>
       <c r="N24" t="n">
-        <v>1559.410052240715</v>
+        <v>1756.756555001905</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>221.1079791745888</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C25" t="n">
-        <v>221.1079791745888</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="X25" t="n">
-        <v>441.900558318119</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y25" t="n">
-        <v>221.1079791745888</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,49 +6211,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6269,7 +6271,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K27" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>1002.792923427374</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1323.128242957076</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="N27" t="n">
-        <v>1854.519469556429</v>
+        <v>1466.525085699305</v>
       </c>
       <c r="O27" t="n">
-        <v>2103.272883640391</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4184.545848715274</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C28" t="n">
-        <v>4015.609665787366</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D28" t="n">
-        <v>3865.493026375031</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E28" t="n">
-        <v>3717.579932792637</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>3570.689985294727</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>4860.854573014292</v>
+        <v>1241.544932159109</v>
       </c>
       <c r="V28" t="n">
-        <v>4860.854573014292</v>
+        <v>1241.544932159109</v>
       </c>
       <c r="W28" t="n">
-        <v>4571.437402977332</v>
+        <v>952.1277621221484</v>
       </c>
       <c r="X28" t="n">
-        <v>4571.437402977332</v>
+        <v>952.1277621221484</v>
       </c>
       <c r="Y28" t="n">
-        <v>4366.194313545513</v>
+        <v>731.3351829786183</v>
       </c>
     </row>
     <row r="29">
@@ -6437,55 +6439,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6503,10 +6505,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>222.5746515181232</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>577.324810152946</v>
+        <v>754.998473976564</v>
       </c>
       <c r="M30" t="n">
-        <v>897.6601296826478</v>
+        <v>754.998473976564</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.071707946799</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O30" t="n">
-        <v>2371.535469249458</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>545.8631874464246</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="C31" t="n">
-        <v>376.9270045185177</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D31" t="n">
-        <v>376.9270045185177</v>
+        <v>503.5547239186419</v>
       </c>
       <c r="E31" t="n">
-        <v>376.9270045185177</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F31" t="n">
-        <v>376.9270045185177</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
         <v>208.7516828383384</v>
@@ -6616,7 +6618,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6646,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1332.528764188856</v>
       </c>
       <c r="T31" t="n">
-        <v>1124.408996269827</v>
+        <v>1332.528764188856</v>
       </c>
       <c r="U31" t="n">
-        <v>835.2803574833852</v>
+        <v>1043.400125402414</v>
       </c>
       <c r="V31" t="n">
-        <v>835.2803574833852</v>
+        <v>1043.400125402414</v>
       </c>
       <c r="W31" t="n">
-        <v>545.8631874464246</v>
+        <v>1043.400125402414</v>
       </c>
       <c r="X31" t="n">
-        <v>545.8631874464246</v>
+        <v>1043.400125402414</v>
       </c>
       <c r="Y31" t="n">
-        <v>545.8631874464246</v>
+        <v>822.6075462588844</v>
       </c>
     </row>
     <row r="32">
@@ -6677,34 +6679,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6725,22 +6727,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6780,22 +6782,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>452.5377573864724</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M33" t="n">
-        <v>1220.905903778934</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N33" t="n">
-        <v>2025.317482043085</v>
+        <v>1402.926441340468</v>
       </c>
       <c r="O33" t="n">
-        <v>2440.930027762787</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>265.3924131404652</v>
+        <v>3796.266898524761</v>
       </c>
       <c r="C34" t="n">
-        <v>265.3924131404652</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T34" t="n">
-        <v>1326.612261067772</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U34" t="n">
-        <v>1037.48362228133</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="V34" t="n">
-        <v>782.7991340754431</v>
+        <v>4382.384669597912</v>
       </c>
       <c r="W34" t="n">
-        <v>493.3819640384826</v>
+        <v>4092.967499560951</v>
       </c>
       <c r="X34" t="n">
-        <v>265.3924131404652</v>
+        <v>4017.059477668291</v>
       </c>
       <c r="Y34" t="n">
-        <v>265.3924131404652</v>
+        <v>3796.266898524761</v>
       </c>
     </row>
     <row r="35">
@@ -6923,25 +6925,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6953,19 +6955,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7002,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K36" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>452.5377573864724</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M36" t="n">
-        <v>967.0546881959771</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="N36" t="n">
-        <v>1771.466266460128</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O36" t="n">
-        <v>2440.930027762787</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>579.0685056491545</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C37" t="n">
-        <v>410.1323227212476</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D37" t="n">
-        <v>260.0156833089119</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E37" t="n">
-        <v>112.1025897265188</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7120,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W37" t="n">
-        <v>1209.499100520942</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X37" t="n">
-        <v>981.5095496229244</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y37" t="n">
-        <v>760.7169704793943</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,25 +7162,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7199,22 +7201,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>190.1020580016956</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>600.9923268462082</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>1214.889396603097</v>
       </c>
       <c r="M39" t="n">
-        <v>1778.261399527878</v>
+        <v>1214.889396603097</v>
       </c>
       <c r="N39" t="n">
-        <v>2122.782055165496</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O39" t="n">
-        <v>2371.535469249458</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>324.3840174432676</v>
+        <v>4202.604530983117</v>
       </c>
       <c r="C40" t="n">
-        <v>155.4478345153607</v>
+        <v>4033.66834805521</v>
       </c>
       <c r="D40" t="n">
-        <v>155.4478345153607</v>
+        <v>4033.66834805521</v>
       </c>
       <c r="E40" t="n">
-        <v>155.4478345153607</v>
+        <v>3885.755254472817</v>
       </c>
       <c r="F40" t="n">
-        <v>155.4478345153607</v>
+        <v>3738.865306974907</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352015</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="W40" t="n">
-        <v>954.8146123150548</v>
+        <v>4651.386661024664</v>
       </c>
       <c r="X40" t="n">
-        <v>726.8250614170374</v>
+        <v>4423.397110126647</v>
       </c>
       <c r="Y40" t="n">
-        <v>506.0324822735073</v>
+        <v>4202.604530983117</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7442,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7491,25 +7493,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>388.8958536704856</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>618.8589595388348</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>1318.370476901345</v>
+        <v>1453.012798589759</v>
       </c>
       <c r="N42" t="n">
-        <v>2122.782055165496</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O42" t="n">
-        <v>2371.535469249458</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3800.532462543054</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C43" t="n">
-        <v>3631.596279615148</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D43" t="n">
-        <v>3481.479640202812</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E43" t="n">
-        <v>3481.479640202812</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F43" t="n">
-        <v>3481.479640202812</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G43" t="n">
-        <v>3481.479640202812</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>4525.994054365623</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>4236.865415579181</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>3982.180927373294</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W43" t="n">
-        <v>3982.180927373294</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X43" t="n">
-        <v>3982.180927373294</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="Y43" t="n">
-        <v>3982.180927373294</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805475</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7649,7 +7651,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7661,37 +7663,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7713,37 +7715,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>388.8958536704856</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>618.8589595388348</v>
+        <v>904.3916683255102</v>
       </c>
       <c r="M45" t="n">
-        <v>939.1942790685366</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N45" t="n">
-        <v>1743.605857332687</v>
+        <v>1433.809122337731</v>
       </c>
       <c r="O45" t="n">
-        <v>2371.535469249458</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P45" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7807,13 +7809,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1271.100589228384</v>
       </c>
       <c r="T46" t="n">
-        <v>1112.095853319815</v>
+        <v>1271.100589228384</v>
       </c>
       <c r="U46" t="n">
-        <v>822.9672145333731</v>
+        <v>981.9719504419425</v>
       </c>
       <c r="V46" t="n">
-        <v>568.2827263274862</v>
+        <v>981.9719504419425</v>
       </c>
       <c r="W46" t="n">
-        <v>278.8655562905255</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="X46" t="n">
-        <v>278.8655562905255</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>692.5547804049818</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9501,7 +9503,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9726,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,13 +9962,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>272.8028588537024</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10188,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10601,7 +10603,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714817</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,10 +10685,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>51.91301957176982</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,7 +10910,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10923,7 +10925,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11145,13 +11147,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>308.4847070287954</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11385,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>342.5357873182014</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>116.7409175122665</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>230.7256174031756</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>128.7934085032646</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>116.5840564508089</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23707,7 +23709,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>28.86052057410205</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>192.3581855871776</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24142,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>33.38685156731853</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>112.9275204083455</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>25.96349418105238</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>104.8566210678471</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>229.3605373673752</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>15.39399481459441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24886,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>33.19717867824758</v>
       </c>
       <c r="T31" t="n">
-        <v>48.70616949679786</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25126,10 +25128,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>50.96659166316005</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>150.5607137153036</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>130.6844047393606</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25360,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>6.267320147927762</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.8451328388535</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -25606,10 +25608,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>277.0705754504619</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>126.8128245442603</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25843,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>51.0370201341978</v>
       </c>
     </row>
     <row r="44">
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.34763787117252</v>
       </c>
       <c r="T46" t="n">
-        <v>36.516157976286</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672199</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>645197.9485672199</v>
+        <v>645197.9485672198</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672199</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672199</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672199</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244623</v>
+      </c>
+      <c r="C2" t="n">
         <v>759463.6371244624</v>
       </c>
-      <c r="C2" t="n">
-        <v>759463.6371244623</v>
-      </c>
       <c r="D2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="E2" t="n">
-        <v>723403.7605147609</v>
+        <v>723403.7605147616</v>
       </c>
       <c r="F2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="G2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="H2" t="n">
         <v>723403.760514761</v>
       </c>
       <c r="I2" t="n">
+        <v>723403.7605147612</v>
+      </c>
+      <c r="J2" t="n">
+        <v>723403.7605147617</v>
+      </c>
+      <c r="K2" t="n">
+        <v>723403.7605147616</v>
+      </c>
+      <c r="L2" t="n">
+        <v>723403.7605147612</v>
+      </c>
+      <c r="M2" t="n">
         <v>723403.7605147611</v>
       </c>
-      <c r="J2" t="n">
-        <v>723403.7605147612</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>723403.7605147613</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="P2" t="n">
         <v>723403.7605147611</v>
-      </c>
-      <c r="M2" t="n">
-        <v>723403.7605147612</v>
-      </c>
-      <c r="N2" t="n">
-        <v>723403.760514761</v>
-      </c>
-      <c r="O2" t="n">
-        <v>723403.7605147612</v>
-      </c>
-      <c r="P2" t="n">
-        <v>723403.7605147613</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.139089236967266e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,40 +26426,40 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758173</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905758697</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="J4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="K4" t="n">
+        <v>787.793690575862</v>
+      </c>
+      <c r="L4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="F4" t="n">
-        <v>787.7936905758693</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905758357</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="K4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758693</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759218</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758696</v>
       </c>
     </row>
     <row r="5">
@@ -26473,19 +26475,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26497,10 +26499,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-52422.45933411067</v>
+        <v>-52422.45933411075</v>
       </c>
       <c r="C6" t="n">
-        <v>537545.4198804338</v>
+        <v>537545.4198804339</v>
       </c>
       <c r="D6" t="n">
-        <v>537545.4198804337</v>
+        <v>537545.4198804332</v>
       </c>
       <c r="E6" t="n">
-        <v>105468.6043985724</v>
+        <v>105468.6043985728</v>
       </c>
       <c r="F6" t="n">
-        <v>630628.6408754686</v>
+        <v>630628.6408754691</v>
       </c>
       <c r="G6" t="n">
-        <v>630628.6408754686</v>
+        <v>630628.640875469</v>
       </c>
       <c r="H6" t="n">
+        <v>630628.6408754688</v>
+      </c>
+      <c r="I6" t="n">
+        <v>630628.6408754687</v>
+      </c>
+      <c r="J6" t="n">
+        <v>454205.4216828762</v>
+      </c>
+      <c r="K6" t="n">
+        <v>630628.6408754691</v>
+      </c>
+      <c r="L6" t="n">
+        <v>630628.6408754687</v>
+      </c>
+      <c r="M6" t="n">
+        <v>495827.6256416314</v>
+      </c>
+      <c r="N6" t="n">
+        <v>630628.6408754687</v>
+      </c>
+      <c r="O6" t="n">
+        <v>630628.640875469</v>
+      </c>
+      <c r="P6" t="n">
         <v>630628.6408754685</v>
-      </c>
-      <c r="I6" t="n">
-        <v>630628.6408754686</v>
-      </c>
-      <c r="J6" t="n">
-        <v>454205.4216828758</v>
-      </c>
-      <c r="K6" t="n">
-        <v>630628.6408754688</v>
-      </c>
-      <c r="L6" t="n">
-        <v>630628.6408754686</v>
-      </c>
-      <c r="M6" t="n">
-        <v>495827.6256416315</v>
-      </c>
-      <c r="N6" t="n">
-        <v>630628.6408754685</v>
-      </c>
-      <c r="O6" t="n">
-        <v>630628.6408754687</v>
-      </c>
-      <c r="P6" t="n">
-        <v>630628.6408754688</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.673861546209081e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.673861546209081e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26738,22 +26740,22 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26793,10 +26795,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.673861546209081e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26941,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.673861546209081e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.673861546209081e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>283.5133614981355</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>118.5594183903701</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27579,28 +27581,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>99.16291260175241</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>112.2436641085297</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>10.13068531455906</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>226.7886034666493</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27789,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>43.07683269438012</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>235.4039284103508</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>119.6639457702497</v>
       </c>
       <c r="E8" t="n">
-        <v>12.36368675645838</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28011,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>94.80683692078068</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>19.66077927292486</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29569,16 +29571,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>-6.764409713084345e-14</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>-7.673861546209081e-14</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>-7.673861546209081e-14</v>
       </c>
     </row>
     <row r="30">
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>7.673861546209081e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>7.673861546209081e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>7.673861546209081e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>7.673861546209081e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>7.673861546209081e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>7.673861546209081e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>7.673861546209081e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>7.673861546209081e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>7.673861546209081e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>7.673861546209081e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>7.673861546209081e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>7.673861546209081e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>7.673861546209081e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>7.673861546209081e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>7.673861546209081e-14</v>
       </c>
     </row>
     <row r="42">
@@ -31130,7 +31132,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423925</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,22 +31357,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>56.98116194942338</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31516,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>86.43447689993485</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>111.734380307287</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>331.1308614851324</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>20.45724131309481</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>278.479916701576</v>
+        <v>267.7425307447068</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -32093,22 +32095,22 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647471</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,43 +32311,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M18" t="n">
-        <v>41.93843809132539</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>73.80225567258259</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,16 +32481,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,22 +32551,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>194.5877923618782</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>46.57366480796219</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32573,13 +32575,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,19 +32788,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>317.5927327378953</v>
       </c>
       <c r="N24" t="n">
-        <v>446.4811309968916</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32810,7 +32812,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -32944,7 +32946,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961211</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -33023,10 +33025,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358985</v>
@@ -33035,16 +33037,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>188.7581524866009</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
@@ -33260,13 +33262,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>126.0475280469431</v>
+        <v>219.9381287893723</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -33275,13 +33277,13 @@
         <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
@@ -33500,25 +33502,25 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>168.5445774098388</v>
+        <v>158.0642534345932</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
@@ -33679,7 +33681,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
         <v>76.0697047810465</v>
@@ -33734,31 +33736,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>196.1430416967706</v>
+        <v>81.10496900926086</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33913,7 +33915,7 @@
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
@@ -33980,7 +33982,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>171.3135836203299</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -33989,13 +33991,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34150,7 +34152,7 @@
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
@@ -34211,28 +34213,28 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>383.0062604371804</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34357,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,37 +34371,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,13 +34444,13 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -34457,13 +34459,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>383.0062604371802</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -34475,7 +34477,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35176,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>563.4168270087174</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>344.0282711410764</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>405.1037147397956</v>
+        <v>394.3663287829264</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
@@ -35741,13 +35743,13 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502023</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M18" t="n">
-        <v>365.509467919307</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>325.0683305048677</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,19 +36123,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109123</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>321.2115904000978</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>278.8596303315472</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>641.1637625658769</v>
       </c>
       <c r="N24" t="n">
-        <v>794.4817932571118</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>251.2660748322851</v>
@@ -36455,10 +36457,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>536.7588147468211</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>555.1665610948106</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>358.3334935705281</v>
+        <v>81.38374900949813</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>419.8106522421239</v>
+        <v>409.3303282668783</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37321,13 +37323,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>519.7140715247522</v>
+        <v>404.6759988372424</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37561,7 +37563,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R38" t="n">
         <v>59.8253897034981</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>93.82319852667651</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37628,7 +37630,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>494.8846134483115</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>348.0006622602202</v>
@@ -37637,10 +37639,10 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37798,7 +37800,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R41" t="n">
         <v>59.8253897034981</v>
@@ -37859,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>706.577290265162</v>
+        <v>166.350673106777</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
@@ -38105,16 +38107,16 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>211.1940752348681</v>
       </c>
       <c r="O45" t="n">
-        <v>634.2723352694653</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3982196.504837797</v>
+        <v>3987135.767686829</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>467088.0403103607</v>
+        <v>410703.2932107843</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7553324.36038505</v>
+        <v>7553324.360385051</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>295.4495120794942</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>265.1806127579638</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554011</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>208.3423105940805</v>
+        <v>208.048100100069</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>89.06935913568195</v>
+        <v>299.8120100236805</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>101.780687729549</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>33.09208962550444</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>81.60336787529192</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>101.780687729549</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051985</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>145.5209865847982</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>173.5954779282454</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>237.6821551249385</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>31.13654107019678</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2061,7 +2061,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>149.0799667719507</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>43.03801681746327</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>145.5209865847978</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>271.7818641996879</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>118.4898845065121</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>143.2925104849745</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,7 +3009,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151918</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002176</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750035</v>
+        <v>77.7414640267985</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>990.5839652830421</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C2" t="n">
-        <v>990.5839652830421</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762915</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4327,31 +4327,31 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="X2" t="n">
-        <v>1289.01781586839</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="Y2" t="n">
-        <v>1289.01781586839</v>
+        <v>1394.624369323446</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
         <v>505.8730812692495</v>
@@ -4406,46 +4406,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2486.702312640363</v>
+        <v>2338.852836391731</v>
       </c>
       <c r="C4" t="n">
-        <v>2317.766129712456</v>
+        <v>2338.852836391731</v>
       </c>
       <c r="D4" t="n">
-        <v>2317.766129712456</v>
+        <v>2338.852836391731</v>
       </c>
       <c r="E4" t="n">
-        <v>2169.853036130063</v>
+        <v>2338.852836391731</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>2191.962888893821</v>
       </c>
       <c r="G4" t="n">
         <v>2022.963088632153</v>
@@ -4494,46 +4494,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="S4" t="n">
-        <v>2486.702312640363</v>
+        <v>2338.852836391731</v>
       </c>
       <c r="T4" t="n">
-        <v>2486.702312640363</v>
+        <v>2338.852836391731</v>
       </c>
       <c r="U4" t="n">
-        <v>2486.702312640363</v>
+        <v>2338.852836391731</v>
       </c>
       <c r="V4" t="n">
-        <v>2486.702312640363</v>
+        <v>2338.852836391731</v>
       </c>
       <c r="W4" t="n">
-        <v>2486.702312640363</v>
+        <v>2338.852836391731</v>
       </c>
       <c r="X4" t="n">
-        <v>2486.702312640363</v>
+        <v>2338.852836391731</v>
       </c>
       <c r="Y4" t="n">
-        <v>2486.702312640363</v>
+        <v>2338.852836391731</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>722.2873163082934</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="C5" t="n">
-        <v>722.2873163082934</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="D5" t="n">
-        <v>722.2873163082934</v>
+        <v>1167.480957434959</v>
       </c>
       <c r="E5" t="n">
-        <v>722.2873163082934</v>
+        <v>781.6927048367149</v>
       </c>
       <c r="F5" t="n">
-        <v>715.3418155590899</v>
+        <v>370.7068000471074</v>
       </c>
       <c r="G5" t="n">
-        <v>297.3780074572768</v>
+        <v>356.7833959856983</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1485.892406545185</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>1112.426648284105</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y5" t="n">
-        <v>722.2873163082934</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="6">
@@ -4655,10 +4655,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4770,7 +4770,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="8">
@@ -4783,16 +4783,16 @@
         <v>512.2786438284563</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>143.3161268880446</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>143.3161268880446</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>143.3161268880446</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>136.3706261388411</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.6879402326643</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>156.7517573047574</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -5007,7 +5007,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,10 +5026,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5041,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5068,10 +5068,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5126,13 +5126,13 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>904.39166832551</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1318.370476901345</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N12" t="n">
-        <v>2122.782055165496</v>
+        <v>1953.181607381369</v>
       </c>
       <c r="O12" t="n">
         <v>2371.535469249458</v>
@@ -5226,19 +5226,19 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>1017.064856369034</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W13" t="n">
-        <v>727.647686332073</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X13" t="n">
         <v>499.6581354340557</v>
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5278,16 +5278,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5469,19 +5469,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>786.0822064765186</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5515,7 +5515,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5527,16 +5527,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5594,16 +5594,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>160.9542590796162</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>571.8445279241289</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>1185.741597681018</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>1954.109744073479</v>
+        <v>1609.589088435861</v>
       </c>
       <c r="N18" t="n">
         <v>1954.109744073479</v>
@@ -5700,22 +5700,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5734,28 +5734,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5837,13 +5837,13 @@
         <v>222.5746515181232</v>
       </c>
       <c r="L21" t="n">
-        <v>802.0403666355641</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M21" t="n">
-        <v>1570.408513028025</v>
+        <v>1149.698165809328</v>
       </c>
       <c r="N21" t="n">
-        <v>2374.820091292176</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O21" t="n">
         <v>2623.573505376138</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
     </row>
     <row r="23">
@@ -5989,31 +5989,31 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6074,13 +6074,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="L24" t="n">
-        <v>711.1141612171745</v>
+        <v>619.3968890222129</v>
       </c>
       <c r="M24" t="n">
-        <v>1479.482307609636</v>
+        <v>1387.765035414674</v>
       </c>
       <c r="N24" t="n">
-        <v>1824.002963247254</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O24" t="n">
         <v>2440.930027762787</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>244.2079870004857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>244.2079870004857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>244.2079870004857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.2079870004857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>244.2079870004857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1164.055751909234</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V25" t="n">
-        <v>1164.055751909234</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W25" t="n">
-        <v>874.6385818722729</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>646.6490309742555</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>425.8564518307254</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6417,19 +6417,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655738</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286132</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X28" t="n">
-        <v>437.6964226305959</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y28" t="n">
-        <v>216.9038434870658</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6463,19 +6463,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6557,7 +6557,7 @@
         <v>1221.963989254138</v>
       </c>
       <c r="O30" t="n">
-        <v>1891.427750556797</v>
+        <v>1891.427750556798</v>
       </c>
       <c r="P30" t="n">
         <v>2411.728372292545</v>
@@ -6648,13 +6648,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
         <v>614.6238123952637</v>
@@ -6679,19 +6679,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6703,10 +6703,10 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6718,31 +6718,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6794,7 +6794,7 @@
         <v>1221.963989254138</v>
       </c>
       <c r="O33" t="n">
-        <v>1891.427750556797</v>
+        <v>1891.427750556798</v>
       </c>
       <c r="P33" t="n">
         <v>2411.728372292545</v>
@@ -6885,19 +6885,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
         <v>97.21709146028584</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,13 +6937,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7031,7 +7031,7 @@
         <v>1221.963989254138</v>
       </c>
       <c r="O36" t="n">
-        <v>1891.427750556797</v>
+        <v>1891.427750556798</v>
       </c>
       <c r="P36" t="n">
         <v>2411.728372292545</v>
@@ -7174,19 +7174,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7262,16 +7262,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M39" t="n">
-        <v>334.2881267578673</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>1221.963989254138</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1891.427750556798</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2411.728372292545</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7399,49 +7399,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M42" t="n">
-        <v>334.2881267578673</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>1221.963989254138</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1891.427750556798</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2411.728372292545</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598087</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7642,34 +7642,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M45" t="n">
-        <v>417.5524109899877</v>
+        <v>865.5852378527474</v>
       </c>
       <c r="N45" t="n">
-        <v>1221.963989254138</v>
+        <v>1669.996816116898</v>
       </c>
       <c r="O45" t="n">
-        <v>1891.427750556797</v>
+        <v>2339.460577419557</v>
       </c>
       <c r="P45" t="n">
-        <v>2411.728372292545</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1420.389539217702</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>1131.26090043126</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>876.5764122253731</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>587.1592421884125</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10910,7 +10910,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11147,7 +11147,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -23466,22 +23466,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>106.6166567390298</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>112.9275204083456</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>48.8408432116525</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>194.5731143188404</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,13 +24132,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>175.5466365346315</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>20.97258187857975</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>14.45548819888944</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>61.34209567542518</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24657,10 +24657,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338557</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338567</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338571</v>
+        <v>143.8060970315908</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>645197.9485672199</v>
+        <v>645197.9485672198</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672199</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>645197.9485672199</v>
+        <v>645197.9485672198</v>
       </c>
     </row>
     <row r="10">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244624</v>
+      </c>
+      <c r="C2" t="n">
+        <v>759463.6371244624</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244623</v>
       </c>
-      <c r="C2" t="n">
-        <v>759463.6371244622</v>
-      </c>
-      <c r="D2" t="n">
-        <v>759463.6371244624</v>
-      </c>
       <c r="E2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="F2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="G2" t="n">
         <v>723403.7605147611</v>
@@ -26334,28 +26334,28 @@
         <v>723403.7605147611</v>
       </c>
       <c r="I2" t="n">
+        <v>723403.7605147611</v>
+      </c>
+      <c r="J2" t="n">
         <v>723403.7605147612</v>
-      </c>
-      <c r="J2" t="n">
-        <v>723403.760514761</v>
       </c>
       <c r="K2" t="n">
         <v>723403.7605147611</v>
       </c>
       <c r="L2" t="n">
-        <v>723403.7605147609</v>
+        <v>723403.760514761</v>
       </c>
       <c r="M2" t="n">
-        <v>723403.760514761</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="N2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="O2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="P2" t="n">
-        <v>723403.7605147609</v>
+        <v>723403.7605147613</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.79369057593</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
         <v>787.7936905758695</v>
@@ -26456,7 +26456,7 @@
         <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758695</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26487,25 +26487,25 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-52422.45933411064</v>
+        <v>-52422.45933411065</v>
       </c>
       <c r="C6" t="n">
-        <v>537545.4198804336</v>
+        <v>537545.4198804339</v>
       </c>
       <c r="D6" t="n">
-        <v>537545.4198804339</v>
+        <v>537545.4198804338</v>
       </c>
       <c r="E6" t="n">
-        <v>104494.0131388508</v>
+        <v>105371.1452726004</v>
       </c>
       <c r="F6" t="n">
-        <v>629654.0496157469</v>
+        <v>630531.1817494966</v>
       </c>
       <c r="G6" t="n">
-        <v>629654.0496157469</v>
+        <v>630531.1817494965</v>
       </c>
       <c r="H6" t="n">
-        <v>629654.0496157469</v>
+        <v>630531.1817494965</v>
       </c>
       <c r="I6" t="n">
-        <v>629654.0496157469</v>
+        <v>630531.1817494965</v>
       </c>
       <c r="J6" t="n">
-        <v>453230.8304231539</v>
+        <v>454107.9625569035</v>
       </c>
       <c r="K6" t="n">
-        <v>629654.0496157469</v>
+        <v>630531.1817494965</v>
       </c>
       <c r="L6" t="n">
-        <v>629654.0496157467</v>
+        <v>630531.1817494964</v>
       </c>
       <c r="M6" t="n">
-        <v>494853.0343819096</v>
+        <v>495730.1665156592</v>
       </c>
       <c r="N6" t="n">
-        <v>629654.0496157471</v>
+        <v>630531.1817494965</v>
       </c>
       <c r="O6" t="n">
-        <v>629654.0496157471</v>
+        <v>630531.1817494965</v>
       </c>
       <c r="P6" t="n">
-        <v>629654.0496157467</v>
+        <v>630531.1817494967</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26755,31 +26755,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.28432958398633</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>84.06035595944917</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>3.803228355938387</v>
+        <v>4.097438849949896</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>234.8534136286752</v>
+        <v>24.11076274067665</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>46.83478528866331</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>332.1808021455031</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>332.1808021455031</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>46.83478528866331</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31144,25 +31144,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>149.8971812516343</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31375,13 +31375,13 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>86.43447689993508</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392741</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31612,10 +31612,10 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N9" t="n">
-        <v>167.900586832999</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,22 +31840,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>94.58938287488235</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>171.3135836203297</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31867,10 +31867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32259,7 +32259,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
         <v>76.06970478104648</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>65.12756871952088</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,7 +32323,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>168.9387261055273</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32557,16 +32557,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>353.0329386354462</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>380.6314029223778</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32578,10 +32578,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32794,16 +32794,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>295.1683754480586</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>371.8925761935062</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -32815,10 +32815,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,16 +32964,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33037,10 +33037,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>330.1172231204814</v>
+        <v>330.1172231204812</v>
       </c>
       <c r="P27" t="n">
         <v>341.0678223458549</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,16 +33201,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33274,7 +33274,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,16 +33438,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33511,7 +33511,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33748,7 +33748,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33985,7 +33985,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33994,16 +33994,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>143.8894692628929</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,16 +34149,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34222,7 +34222,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34231,16 +34231,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>143.8894692628929</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,16 +34386,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34456,28 +34456,28 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>32.39888063626327</v>
       </c>
       <c r="Q45" t="n">
-        <v>143.8894692628929</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,13 +35023,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,10 +35260,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>418.1604127028639</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>422.5796584526148</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>64.38097739326302</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35971,10 +35971,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>492.5097559335089</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
         <v>676.2260215178376</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>585.3189041590311</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>704.2024327503594</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>527.4543409716435</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>623.1586510257913</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36685,10 +36685,10 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>581.3832979527665</v>
+        <v>581.3832979527663</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
@@ -36697,7 +36697,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36852,10 +36852,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36922,10 +36922,10 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37159,10 +37159,10 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37396,10 +37396,10 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>239.4656922197792</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>213.9849829127205</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,19 +37867,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>239.4656922197792</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>213.9849829127205</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,19 +38104,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>216.8872418618702</v>
       </c>
       <c r="Q45" t="n">
-        <v>213.9849829127205</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
